--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62DA3BE-C2C4-E846-A08C-8BA4D1696D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4628AB-9D47-C649-B417-93618CF81908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
+    <sheet name="Number" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>構成</t>
   </si>
@@ -89,6 +90,54 @@
   </si>
   <si>
     <t>python3 01_variable.py</t>
+  </si>
+  <si>
+    <t># Number các thao tác cơ bản</t>
+  </si>
+  <si>
+    <t>result1 = 1 + 2</t>
+  </si>
+  <si>
+    <t>result2 = 10 + 2 * 100 - 50</t>
+  </si>
+  <si>
+    <t>print(result1)</t>
+  </si>
+  <si>
+    <t>print(result2)</t>
+  </si>
+  <si>
+    <t># Ép kiểu</t>
+  </si>
+  <si>
+    <t>result2 = int(2.8)</t>
+  </si>
+  <si>
+    <t>result3 = float("2.3")</t>
+  </si>
+  <si>
+    <t>print(result3)</t>
+  </si>
+  <si>
+    <t>print(type(result3))</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/02_number.py</t>
+  </si>
+  <si>
+    <t>python3 02_number.py</t>
+  </si>
+  <si>
+    <t>&lt;class 'float'&gt;</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>&lt;class 'int'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;class 'str'&gt;</t>
   </si>
 </sst>
 </file>
@@ -217,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -227,11 +276,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,6 +341,55 @@
         <a:xfrm>
           <a:off x="952499" y="5181600"/>
           <a:ext cx="11932283" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97398</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B26A83-840F-E152-13B5-9C31C26BB81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="965200" y="6807200"/>
+          <a:ext cx="10689198" cy="1625600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3130266E-1A5D-C442-9359-B0EB28B3DA05}">
   <dimension ref="A3:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,38 +722,30 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -661,7 +756,7 @@
       <c r="F9" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -682,7 +777,6 @@
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
       <c r="D14" s="5"/>
       <c r="E14" t="s">
         <v>13</v>
@@ -693,41 +787,59 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9"/>
       <c r="D16" s="5"/>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="9"/>
       <c r="D19" s="5"/>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="9"/>
       <c r="D20" s="5"/>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
@@ -735,7 +847,7 @@
       <c r="D21" s="8"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="2"/>
@@ -756,166 +868,41 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
       <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -940,4 +927,417 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0CC97E-5A37-2E41-A870-EAFA42883709}">
+  <dimension ref="A4:O42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="5"/>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="5"/>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="5"/>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="5"/>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="5"/>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4628AB-9D47-C649-B417-93618CF81908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5261F2-9A65-B54A-A829-15597E17FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
     <sheet name="Number" sheetId="2" r:id="rId2"/>
+    <sheet name="Exe 01 - shape" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>構成</t>
   </si>
@@ -138,13 +139,95 @@
   </si>
   <si>
     <t>&lt;class 'str'&gt;</t>
+  </si>
+  <si>
+    <t>exe</t>
+  </si>
+  <si>
+    <t>exe_01_shape.py</t>
+  </si>
+  <si>
+    <t>python/exe/exe_01_shape.py</t>
+  </si>
+  <si>
+    <t># Input : Cho chiều dài và chiều rộng của hình chữ nhật</t>
+  </si>
+  <si>
+    <t># Output: Chu vi hình chữ nhật</t>
+  </si>
+  <si>
+    <t>x = 10</t>
+  </si>
+  <si>
+    <t>y = 5</t>
+  </si>
+  <si>
+    <t>result = (x+y) * 2</t>
+  </si>
+  <si>
+    <t>print(x, y, sep=" ", end="\n")</t>
+  </si>
+  <si>
+    <t>print(result)</t>
+  </si>
+  <si>
+    <t>python3 exe_01_shape.py</t>
+  </si>
+  <si>
+    <t>10 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">end: string appended after the last value, default a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>newline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">step: string inserted between values, default a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +241,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -279,12 +367,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,6 +482,108 @@
         <a:xfrm>
           <a:off x="965200" y="6807200"/>
           <a:ext cx="10689198" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4F5333-6087-9469-5A30-C4C661A601C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1676400" y="4381500"/>
+          <a:ext cx="4152900" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111660</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D6AC9B-79BC-43AC-3316-D76543030F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="6184900"/>
+          <a:ext cx="10728860" cy="1270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,7 +991,7 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>1</v>
       </c>
     </row>
@@ -809,7 +1003,7 @@
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -933,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0CC97E-5A37-2E41-A870-EAFA42883709}">
   <dimension ref="A4:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,35 +1204,27 @@
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
       <c r="E19" s="5"/>
       <c r="F19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>3</v>
       </c>
     </row>
@@ -1046,68 +1232,54 @@
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
       <c r="E20" s="5"/>
       <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="14"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="14"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
       <c r="E24" s="5"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
       <c r="E25" s="5"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
       <c r="E26" s="5"/>
       <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1115,13 +1287,11 @@
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
       <c r="E27" s="5"/>
       <c r="F27" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1129,8 +1299,6 @@
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
       <c r="E28" s="5"/>
       <c r="F28" t="s">
         <v>13</v>
@@ -1166,157 +1334,41 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="12" t="s">
+      <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -1340,4 +1392,355 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470482B-3A2C-E741-8F43-420B40AD46DB}">
+  <dimension ref="A4:O37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="5"/>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="5"/>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="5"/>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="5"/>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5261F2-9A65-B54A-A829-15597E17FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143083B-A8D6-4D40-8A13-6033F6D8E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
     <sheet name="Number" sheetId="2" r:id="rId2"/>
     <sheet name="Exe 01 - shape" sheetId="3" r:id="rId3"/>
+    <sheet name="String 01" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>構成</t>
   </si>
@@ -221,6 +222,105 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>02_number.py</t>
+  </si>
+  <si>
+    <t>03_string_01.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/03_string_01.py</t>
+  </si>
+  <si>
+    <t># Nối chuỗi</t>
+  </si>
+  <si>
+    <t># Nối số và chuỗi</t>
+  </si>
+  <si>
+    <t># Nhân bản chuỗi N lần</t>
+  </si>
+  <si>
+    <t># Kiểm tra sự tồn tại của chuỗi</t>
+  </si>
+  <si>
+    <t># Index trong chuỗi</t>
+  </si>
+  <si>
+    <t># "hello"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Thay đổi giá trị của phần tử trong chuỗi: str1[0] = "d" không thể </t>
+  </si>
+  <si>
+    <t>myStr = "hello"</t>
+  </si>
+  <si>
+    <t>myStr = 'python'</t>
+  </si>
+  <si>
+    <t>myStr = "I'm Python"</t>
+  </si>
+  <si>
+    <t>str1 = "hello"</t>
+  </si>
+  <si>
+    <t>str2 = "python"</t>
+  </si>
+  <si>
+    <t>result1 = str1 + "----" + str2</t>
+  </si>
+  <si>
+    <t>result1 = "Result: " + str(1+2)</t>
+  </si>
+  <si>
+    <t>result2 = (str1 + " ") * 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result3 = "hello" in str1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">result4 = str1[3]   # Chỉ số trong chuỗi 0 1 2 3   </t>
+  </si>
+  <si>
+    <t>result5 = str1[-1]  # Lấy ký tự cuối chuỗi</t>
+  </si>
+  <si>
+    <t>result6 = str1[len(str1) - 1]  # Lấy ký tự cuối chuỗi</t>
+  </si>
+  <si>
+    <t>print(result4)</t>
+  </si>
+  <si>
+    <t>print(result5)</t>
+  </si>
+  <si>
+    <t>print(result6)</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>hello----python</t>
+  </si>
+  <si>
+    <t>Result: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello hello hello hello hello </t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>python3 03_string_01.py</t>
   </si>
 </sst>
 </file>
@@ -354,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -373,10 +473,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,13 +610,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -552,13 +663,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>111660</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -584,6 +695,55 @@
         <a:xfrm>
           <a:off x="939800" y="6184900"/>
           <a:ext cx="10728860" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFFE796-FC4C-5C01-931A-F111602A678E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="11252200"/>
+          <a:ext cx="10312400" cy="1856232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,17 +1055,17 @@
   <dimension ref="A3:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -914,47 +1074,53 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,7 +1133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
@@ -979,11 +1145,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1128,17 +1294,17 @@
   <dimension ref="A4:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1147,52 +1313,60 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1374,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1396,20 +1570,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470482B-3A2C-E741-8F43-420B40AD46DB}">
-  <dimension ref="A4:O37"/>
+  <dimension ref="A4:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1418,326 +1592,927 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="9"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="4"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="5"/>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
       <c r="F23" s="5"/>
       <c r="H23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="H24" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="5"/>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+        <v>42</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="14">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
       <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
       <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="8"/>
+      <c r="A37" s="4"/>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CF3821-660A-3749-BEAF-8E06B931D647}">
+  <dimension ref="A3:N65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="20"/>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="5"/>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="5"/>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="5"/>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="5"/>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="5"/>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="5"/>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="5"/>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143083B-A8D6-4D40-8A13-6033F6D8E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED681C5-80D9-6245-936E-76AC77299F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
     <sheet name="Number" sheetId="2" r:id="rId2"/>
     <sheet name="Exe 01 - shape" sheetId="3" r:id="rId3"/>
     <sheet name="String 01" sheetId="4" r:id="rId4"/>
+    <sheet name="String 02" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="97">
   <si>
     <t>構成</t>
   </si>
@@ -321,6 +322,54 @@
   </si>
   <si>
     <t>python3 03_string_01.py</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t># Trích xuất chuỗi</t>
+  </si>
+  <si>
+    <t>myStr   = "hello python"</t>
+  </si>
+  <si>
+    <t>result7 = myStr[:]  # Cũng giốngg với result7 = myStr</t>
+  </si>
+  <si>
+    <t>result7 = myStr[2:] # from:to-1 -&gt; Lấy từ chỉ số 2 cho đến cuối chuỗi</t>
+  </si>
+  <si>
+    <t>result7 = myStr[:2] # Lấy từ chỉ số 0 cho đến chỉ số 1</t>
+  </si>
+  <si>
+    <t>result7 = myStr[2:4]  # Lấy từ chỉ số 2 cho đến chỉ số 3</t>
+  </si>
+  <si>
+    <t>result7 = myStr[::-1]  # đảo ngược chuỗi</t>
+  </si>
+  <si>
+    <t>print(result7)</t>
+  </si>
+  <si>
+    <t>nohtyp olleh</t>
+  </si>
+  <si>
+    <t>hlph</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>llo python</t>
+  </si>
+  <si>
+    <t>hello python</t>
+  </si>
+  <si>
+    <t>result7 = myStr[::3] # Không truyền from và to, có bước nhảy là 3 -&gt; hlph</t>
   </si>
 </sst>
 </file>
@@ -454,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -476,19 +525,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,7 +1376,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="5"/>
@@ -1819,91 +1859,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CF3821-660A-3749-BEAF-8E06B931D647}">
   <dimension ref="A3:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="4"/>
       <c r="D10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="5"/>
       <c r="G10" t="s">
         <v>13</v>
       </c>
@@ -1912,32 +1928,24 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -1958,86 +1966,50 @@
       <c r="B18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
       <c r="G26" s="5"/>
       <c r="H26" t="s">
         <v>13</v>
@@ -2048,40 +2020,24 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
       <c r="G30" s="5"/>
       <c r="H30" t="s">
         <v>13</v>
@@ -2092,40 +2048,24 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
       <c r="G34" s="5"/>
       <c r="H34" t="s">
         <v>13</v>
@@ -2136,122 +2076,74 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
       <c r="G38" s="5"/>
       <c r="H38" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
       <c r="G46" s="5"/>
       <c r="H46" t="s">
         <v>13</v>
@@ -2264,10 +2156,6 @@
       <c r="B47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
       <c r="G47" s="5"/>
       <c r="H47" t="s">
         <v>13</v>
@@ -2280,10 +2168,6 @@
       <c r="B48" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
       <c r="G48" s="5"/>
       <c r="H48" t="s">
         <v>13</v>
@@ -2294,20 +2178,12 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2338,164 +2214,45 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="24" t="s">
+      <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
       <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
       <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
       <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
       <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
       <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
       <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
       <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
       <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
       <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -2518,4 +2275,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE2AFA6-DD22-5A4F-A8A5-AB93BD207990}">
+  <dimension ref="A3:J66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED681C5-80D9-6245-936E-76AC77299F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A0710-7B64-C142-AD1D-AF665991E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Exe 01 - shape" sheetId="3" r:id="rId3"/>
     <sheet name="String 01" sheetId="4" r:id="rId4"/>
     <sheet name="String 02" sheetId="5" r:id="rId5"/>
+    <sheet name="Exe 02 - swap" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="110">
   <si>
     <t>構成</t>
   </si>
@@ -370,6 +371,45 @@
   </si>
   <si>
     <t>result7 = myStr[::3] # Không truyền from và to, có bước nhảy là 3 -&gt; hlph</t>
+  </si>
+  <si>
+    <t>exe_02_swap.py</t>
+  </si>
+  <si>
+    <t>python/exe/exe_02_swap.py</t>
+  </si>
+  <si>
+    <t># Input : Cho 2 chuỗi x = "abc", y = "xyz"</t>
+  </si>
+  <si>
+    <t># Output: Tạo ra chuỗi mới xyc abz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        </t>
+  </si>
+  <si>
+    <t>x = "abc"</t>
+  </si>
+  <si>
+    <t>y = "xyz"</t>
+  </si>
+  <si>
+    <t>xNew = y[:len(y)-1] + x[-1]</t>
+  </si>
+  <si>
+    <t>yNew = x[:len(x)-1] + y[-1]</t>
+  </si>
+  <si>
+    <t>result = xNew + " " + yNew</t>
+  </si>
+  <si>
+    <t>python3 exe_02_swap.py</t>
+  </si>
+  <si>
+    <t>xyc</t>
+  </si>
+  <si>
+    <t>abz</t>
   </si>
 </sst>
 </file>
@@ -503,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -529,6 +569,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,6 +826,104 @@
         <a:xfrm>
           <a:off x="939800" y="11252200"/>
           <a:ext cx="10312400" cy="1856232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>606054</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3F9DE4-326F-2623-D4B0-636DE7D551C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="14274800"/>
+          <a:ext cx="11235954" cy="3073400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>191894</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69378BE6-36B8-D154-2643-78EFE548ADA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="6794500"/>
+          <a:ext cx="9996294" cy="1003300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2279,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE2AFA6-DD22-5A4F-A8A5-AB93BD207990}">
-  <dimension ref="A3:J66"/>
+  <dimension ref="A3:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2695,7 +2835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
         <v>89</v>
       </c>
@@ -2703,7 +2843,7 @@
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2712,7 +2852,662 @@
       <c r="G66" s="7"/>
       <c r="H66" s="8"/>
     </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="5"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="5"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="5"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="5"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="5"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="5"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="5"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="5"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6143AAC-151D-8845-AE79-4A19DBC41CDB}">
+  <dimension ref="A3:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="5"/>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="5"/>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8A0710-7B64-C142-AD1D-AF665991E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544EC43E-BF53-2948-8FE3-3171B3F54906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="String 01" sheetId="4" r:id="rId4"/>
     <sheet name="String 02" sheetId="5" r:id="rId5"/>
     <sheet name="Exe 02 - swap" sheetId="6" r:id="rId6"/>
+    <sheet name="String 03" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="128">
   <si>
     <t>構成</t>
   </si>
@@ -411,12 +412,66 @@
   <si>
     <t>abz</t>
   </si>
+  <si>
+    <t>str1 = "quangvu:18:170cm" #name:age:height</t>
+  </si>
+  <si>
+    <t>str2 = "pyTHon is easy"</t>
+  </si>
+  <si>
+    <t>result1 = str1.split(":")</t>
+  </si>
+  <si>
+    <t>print(result1[1])</t>
+  </si>
+  <si>
+    <t>result2 = str2.upper()</t>
+  </si>
+  <si>
+    <t>result3 = str2.lower()</t>
+  </si>
+  <si>
+    <t>result4 = str2.swapcase()</t>
+  </si>
+  <si>
+    <t>result5 = str2.title()</t>
+  </si>
+  <si>
+    <t>result6 = str2.replace("p", "HAHA")</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/03_string_02.py</t>
+  </si>
+  <si>
+    <t>03_string_02.py</t>
+  </si>
+  <si>
+    <t>python3 03_string_02.py</t>
+  </si>
+  <si>
+    <t>['quangvu', '18', '170cm']</t>
+  </si>
+  <si>
+    <t>PYTHON IS EASY</t>
+  </si>
+  <si>
+    <t>python is easy</t>
+  </si>
+  <si>
+    <t>HAHAyTHon is easy</t>
+  </si>
+  <si>
+    <t>PYthON IS EASY → các ký tự thường được chuyển thành các ký tự hoa và ngược lại</t>
+  </si>
+  <si>
+    <t>Python Is Easy → Các ký tự đầu tiên của các từ được chuyển sang in hoa và các ký tự còn lại của các từ được chuyển sang chữ thường</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,6 +490,13 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -543,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -569,8 +631,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,6 +998,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>521398</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592F5984-C6B6-81BA-01DE-72A071F2DF10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939799" y="8026400"/>
+          <a:ext cx="11964099" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2873,276 +2985,69 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="18" t="s">
+      <c r="B70" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
       <c r="O70" s="5"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
       <c r="O71" s="5"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
       <c r="O72" s="5"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
       <c r="O73" s="5"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
       <c r="O74" s="5"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
       <c r="O75" s="5"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
       <c r="O76" s="5"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
       <c r="O77" s="5"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
       <c r="O78" s="5"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
       <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
       <c r="O80" s="5"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
       <c r="O81" s="5"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
       <c r="O82" s="5"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
       <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
       <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -3172,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6143AAC-151D-8845-AE79-4A19DBC41CDB}">
   <dimension ref="A3:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3134,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="5"/>
@@ -3284,46 +3189,34 @@
       <c r="B19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
       <c r="E24" s="5"/>
       <c r="F24" t="s">
         <v>13</v>
@@ -3336,8 +3229,6 @@
       <c r="B25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
       <c r="E25" s="5"/>
       <c r="F25" t="s">
         <v>13</v>
@@ -3348,24 +3239,18 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -3394,100 +3279,29 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="18" t="s">
+      <c r="B33" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3510,4 +3324,562 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A509BDA4-067D-9448-8B0B-7998EA7567F0}">
+  <dimension ref="A3:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544EC43E-BF53-2948-8FE3-3171B3F54906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366C694A-3C94-1C44-89EC-129FEF8DB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="6" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="7" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="String 02" sheetId="5" r:id="rId5"/>
     <sheet name="Exe 02 - swap" sheetId="6" r:id="rId6"/>
     <sheet name="String 03" sheetId="7" r:id="rId7"/>
+    <sheet name="String 04" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="155">
   <si>
     <t>構成</t>
   </si>
@@ -465,6 +466,87 @@
   </si>
   <si>
     <t>Python Is Easy → Các ký tự đầu tiên của các từ được chuyển sang in hoa và các ký tự còn lại của các từ được chuyển sang chữ thường</t>
+  </si>
+  <si>
+    <t>03_string_03.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/03_string_03.py</t>
+  </si>
+  <si>
+    <t>str1 = "Python is %s !!" %('easy')</t>
+  </si>
+  <si>
+    <t>print(str1)</t>
+  </si>
+  <si>
+    <t>str2 = "Python is %s !! Python is %s !!" %('easy', 'free')</t>
+  </si>
+  <si>
+    <t>print(str2)</t>
+  </si>
+  <si>
+    <t>strTemplate = "Khóa học: %s - Học phí: %s"</t>
+  </si>
+  <si>
+    <t>strPHP      = strTemplate %('php', 'free')</t>
+  </si>
+  <si>
+    <t>print(strPython)</t>
+  </si>
+  <si>
+    <t>print(strPHP)</t>
+  </si>
+  <si>
+    <t>result1 = "Item one: {}".format("a")</t>
+  </si>
+  <si>
+    <t>result1 = "Item one: {} Item two: {}".format("a","b")</t>
+  </si>
+  <si>
+    <t>result1 = "Item one: {x} Item two: {y}".format(x="a", y = "b")</t>
+  </si>
+  <si>
+    <t>result1 = "Item one: {y} Item two: {x}".format(x="a", y = "b")</t>
+  </si>
+  <si>
+    <t>x = "A"</t>
+  </si>
+  <si>
+    <t>y = "B"</t>
+  </si>
+  <si>
+    <t>result2 = f'Item one: {x} Item two: {y}'</t>
+  </si>
+  <si>
+    <t>python3 03_string_03.py</t>
+  </si>
+  <si>
+    <t>strPython   = strTemplate %('python', '10$')</t>
+  </si>
+  <si>
+    <t>Python is easy !!</t>
+  </si>
+  <si>
+    <t>Python is easy !! Python is free !!</t>
+  </si>
+  <si>
+    <t>Khóa học: python - Học phí: 10$</t>
+  </si>
+  <si>
+    <t>Khóa học: php - Học phí: free</t>
+  </si>
+  <si>
+    <t>Item one: a</t>
+  </si>
+  <si>
+    <t>Item one: a Item two: b</t>
+  </si>
+  <si>
+    <t>Item one: b Item two: a</t>
+  </si>
+  <si>
+    <t>Item one: A Item two: B</t>
   </si>
 </sst>
 </file>
@@ -631,9 +713,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,6 +1129,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>758062</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>196900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361177</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>29536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9F9C36-5A9C-4DD4-478A-11CC3CAEFFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="758062" y="10120621"/>
+          <a:ext cx="12007766" cy="2520310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3330,8 +3461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A509BDA4-067D-9448-8B0B-7998EA7567F0}">
   <dimension ref="A3:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3420,7 +3551,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="5"/>
@@ -3450,27 +3581,18 @@
       <c r="B20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
@@ -3481,29 +3603,20 @@
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H25" t="s">
@@ -3514,20 +3627,14 @@
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H27" t="s">
@@ -3538,20 +3645,14 @@
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H29" t="s">
@@ -3562,20 +3663,14 @@
       <c r="B30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
@@ -3586,20 +3681,14 @@
       <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H33" t="s">
@@ -3610,9 +3699,6 @@
       <c r="B34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -3644,220 +3730,53 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="17" t="s">
+      <c r="B39" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
       <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -3882,4 +3801,716 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE782876-0790-4941-9E6A-D96F455C5488}">
+  <dimension ref="A3:P62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="129" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="5"/>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="5"/>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="5"/>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="5"/>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="5"/>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="5"/>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="5"/>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="5"/>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="5"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="5"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="5"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="5"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="5"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="5"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="5"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="5"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="5"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366C694A-3C94-1C44-89EC-129FEF8DB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE50F135-8FF2-8F45-A43F-BE46C8C12C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="7" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="8" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Exe 02 - swap" sheetId="6" r:id="rId6"/>
     <sheet name="String 03" sheetId="7" r:id="rId7"/>
     <sheet name="String 04" sheetId="8" r:id="rId8"/>
+    <sheet name="String 05" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="168">
   <si>
     <t>構成</t>
   </si>
@@ -547,6 +548,65 @@
   </si>
   <si>
     <t>Item one: A Item two: B</t>
+  </si>
+  <si>
+    <t>03_string_04.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/03_string_04.py</t>
+  </si>
+  <si>
+    <t>str = "Python"</t>
+  </si>
+  <si>
+    <t>print(str)</t>
+  </si>
+  <si>
+    <t>strFormat = str.center(20)</t>
+  </si>
+  <si>
+    <t>print(strFormat)</t>
+  </si>
+  <si>
+    <t>strFormat = str.center(12,"-")</t>
+  </si>
+  <si>
+    <t>strFormat = str.ljust(12,"_")</t>
+  </si>
+  <si>
+    <t>python3 03_string_04.py</t>
+  </si>
+  <si>
+    <t>Python______</t>
+  </si>
+  <si>
+    <t>strFormat = str.rjust(12,"_")</t>
+  </si>
+  <si>
+    <t>______Python</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">---Python---  → Chuỗi này có </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ký tự</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -687,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -716,6 +776,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,6 +1239,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>132708</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2CA13C-1EB9-5BB5-D833-922082FE552C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="7404100"/>
+          <a:ext cx="13188308" cy="2006600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3807,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE782876-0790-4941-9E6A-D96F455C5488}">
   <dimension ref="A3:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="129" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView zoomScale="129" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3871,7 +3981,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="5"/>
@@ -3941,20 +4051,12 @@
       <c r="B21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
       <c r="G22" s="5"/>
       <c r="H22" t="s">
         <v>13</v>
@@ -3967,30 +4069,18 @@
       <c r="B23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
       <c r="G25" s="5"/>
       <c r="H25" t="s">
         <v>13</v>
@@ -4003,10 +4093,6 @@
       <c r="B26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
       <c r="G26" s="5"/>
       <c r="H26" t="s">
         <v>13</v>
@@ -4019,38 +4105,22 @@
       <c r="B27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
       <c r="G30" s="5"/>
       <c r="H30" t="s">
         <v>13</v>
@@ -4063,20 +4133,12 @@
       <c r="B31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
       <c r="G32" s="5"/>
       <c r="H32" t="s">
         <v>13</v>
@@ -4089,20 +4151,12 @@
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
       <c r="G34" s="5"/>
       <c r="H34" t="s">
         <v>13</v>
@@ -4115,20 +4169,12 @@
       <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
       <c r="G36" s="5"/>
       <c r="H36" t="s">
         <v>13</v>
@@ -4141,48 +4187,28 @@
       <c r="B37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
       <c r="G41" s="5"/>
       <c r="H41" t="s">
         <v>13</v>
@@ -4193,20 +4219,12 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -4239,256 +4257,61 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="19" t="s">
+      <c r="B48" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
       <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
       <c r="P51" s="5"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
       <c r="P52" s="5"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
       <c r="P53" s="5"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
       <c r="P58" s="5"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
       <c r="P59" s="5"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -4513,4 +4336,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDE2FFD-E026-A448-8149-A1C2EFE66A1D}">
+  <dimension ref="A4:R47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="5"/>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="5"/>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="5"/>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE50F135-8FF2-8F45-A43F-BE46C8C12C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A44A7B3-D1C2-E844-9FEB-E152DC4AFEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="8" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="9" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="String 03" sheetId="7" r:id="rId7"/>
     <sheet name="String 04" sheetId="8" r:id="rId8"/>
     <sheet name="String 05" sheetId="9" r:id="rId9"/>
+    <sheet name="Exe 03 - birthday" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="182">
   <si>
     <t>構成</t>
   </si>
@@ -607,6 +608,48 @@
       </rPr>
       <t xml:space="preserve"> ký tự</t>
     </r>
+  </si>
+  <si>
+    <t>exe_03_birthday.py</t>
+  </si>
+  <si>
+    <t>python/exe/exe_03_birthday.py</t>
+  </si>
+  <si>
+    <t># Input : Nhập vào tên và năm sinh</t>
+  </si>
+  <si>
+    <t># Output: Xin chào [name], năm nay bạn [age] tuổi</t>
+  </si>
+  <si>
+    <t># python get current year</t>
+  </si>
+  <si>
+    <t># https://stackoverflow.com/questions/28189442/datetime-current-year-and-month-python/28189525</t>
+  </si>
+  <si>
+    <t># - năm hiện tại</t>
+  </si>
+  <si>
+    <t># - lấy giá trị mà người dùng họ nhập vào</t>
+  </si>
+  <si>
+    <t>from datetime import datetime</t>
+  </si>
+  <si>
+    <t>currentYear = datetime.now().year</t>
+  </si>
+  <si>
+    <t>name        = input("Nhập vào tên của bạn: ")</t>
+  </si>
+  <si>
+    <t>birthday    = int(input("Nhập vào năm sinh của bạn: "))</t>
+  </si>
+  <si>
+    <t>result      = "Xin chào {name}, năm nay bạn {age} tuổi".format(name=name, age = currentYear - birthday)</t>
+  </si>
+  <si>
+    <t>python3 exe_03_birthday.py</t>
   </si>
 </sst>
 </file>
@@ -774,9 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,6 +881,161 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484984</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F935630-28E1-48F6-4587-3CBDB04BA359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939799" y="9245600"/>
+          <a:ext cx="10276685" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570D9F7E-A15D-1B7B-9C91-6EBEAAB249BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="7061200"/>
+          <a:ext cx="1447800" cy="2997200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE67BB4-7F9D-BA0C-1B14-04044ACB45C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="7493000"/>
+          <a:ext cx="1739900" cy="2349500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1822,6 +2020,541 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8CFFC0-5591-644E-9D64-38C71A58EE3F}">
+  <dimension ref="A4:N53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0CC97E-5A37-2E41-A870-EAFA42883709}">
   <dimension ref="A4:O42"/>
@@ -4342,8 +5075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDE2FFD-E026-A448-8149-A1C2EFE66A1D}">
   <dimension ref="A4:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4413,7 +5146,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" t="s">
         <v>128</v>
       </c>
       <c r="F13" s="5"/>
@@ -4475,37 +5208,29 @@
       <c r="B23" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
       <c r="E26" s="5"/>
       <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4513,16 +5238,12 @@
       <c r="B27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
       <c r="E28" s="5"/>
       <c r="F28" t="s">
         <v>13</v>
@@ -4535,16 +5256,12 @@
       <c r="B29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
       <c r="E30" s="5"/>
       <c r="F30" t="s">
         <v>13</v>
@@ -4557,8 +5274,6 @@
       <c r="B31" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4591,224 +5306,49 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
       <c r="R40" s="5"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
       <c r="R44" s="5"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
       <c r="R45" s="5"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
       <c r="R46" s="5"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">

--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A44A7B3-D1C2-E844-9FEB-E152DC4AFEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F598E52C-2742-9F4C-ABB3-55E1FB03453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="9" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="10" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="String 04" sheetId="8" r:id="rId8"/>
     <sheet name="String 05" sheetId="9" r:id="rId9"/>
     <sheet name="Exe 03 - birthday" sheetId="10" r:id="rId10"/>
+    <sheet name="Exe 04 - tag" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="191">
   <si>
     <t>構成</t>
   </si>
@@ -650,6 +651,33 @@
   </si>
   <si>
     <t>python3 exe_03_birthday.py</t>
+  </si>
+  <si>
+    <t>exe_04_tag.py</t>
+  </si>
+  <si>
+    <t>python/exe/exe_04_tag.py</t>
+  </si>
+  <si>
+    <t># Input : Cho 1 chuỗi và tag html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Output: Tạo ra tag html với nội dung là chuỗi </t>
+  </si>
+  <si>
+    <t>content = "Hello"</t>
+  </si>
+  <si>
+    <t>tag     = "div"</t>
+  </si>
+  <si>
+    <t>result1  = "&lt;{tag}&gt;{content}&lt;/{tag}&gt;".format(tag = tag, content = content)</t>
+  </si>
+  <si>
+    <t>result2  = "&lt;%s&gt;%s&lt;/%s&gt;" % (tag, content, tag)</t>
+  </si>
+  <si>
+    <t>python3 exe_04_tag.py</t>
   </si>
 </sst>
 </file>
@@ -1036,6 +1064,55 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>82820</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4DBA92-A127-A6FA-C0E5-52FF966A59EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="7594600"/>
+          <a:ext cx="11550920" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2024,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8CFFC0-5591-644E-9D64-38C71A58EE3F}">
   <dimension ref="A4:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2179,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="D14" s="19" t="s">
+      <c r="D14" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="5"/>
@@ -2169,209 +2246,90 @@
       <c r="B24" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2405,132 +2363,37 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
       <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
       <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
       <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
       <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -2548,6 +2411,433 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3056AB1-F460-8745-99A9-DE6A744B9F62}">
+  <dimension ref="A4:P45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F598E52C-2742-9F4C-ABB3-55E1FB03453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC829C12-F752-BE47-8241-5BBE385444FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="10" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="11" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="String 05" sheetId="9" r:id="rId9"/>
     <sheet name="Exe 03 - birthday" sheetId="10" r:id="rId10"/>
     <sheet name="Exe 04 - tag" sheetId="11" r:id="rId11"/>
+    <sheet name="List 01" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="207">
   <si>
     <t>構成</t>
   </si>
@@ -678,6 +679,54 @@
   </si>
   <si>
     <t>python3 exe_04_tag.py</t>
+  </si>
+  <si>
+    <t>04_list_01.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/04_list_01.py</t>
+  </si>
+  <si>
+    <t>myList = ["a", "b", "c"]</t>
+  </si>
+  <si>
+    <t>myList = [1, 2, 3]</t>
+  </si>
+  <si>
+    <t>myList = [1, 2, 3, "a", "b", "c", ["d", "e"]]</t>
+  </si>
+  <si>
+    <t># Kiểm tra sự tồn tại</t>
+  </si>
+  <si>
+    <t>print("a" in myList)</t>
+  </si>
+  <si>
+    <t>print("aA" not in myList)</t>
+  </si>
+  <si>
+    <t># Index</t>
+  </si>
+  <si>
+    <t>print(myList[0])</t>
+  </si>
+  <si>
+    <t>print(myList[-1])</t>
+  </si>
+  <si>
+    <t>print(myList[6][1])</t>
+  </si>
+  <si>
+    <t>python3 04_list_01.py</t>
+  </si>
+  <si>
+    <t>['d', 'e']</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>myList[6] = ["d", "e"], myList[6][1] = e</t>
   </si>
 </sst>
 </file>
@@ -1113,6 +1162,161 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>305904</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F250D6-2E1F-5530-9383-8112BBFDCCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="8597900"/>
+          <a:ext cx="11761304" cy="1803400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA3AFA1-30CB-67DD-D726-8DAC6E43AC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1739900" y="6908800"/>
+          <a:ext cx="1028700" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF3B321-EC7B-02A7-AF7C-4D0C963EE047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1955800" y="6896100"/>
+          <a:ext cx="1193800" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2422,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3056AB1-F460-8745-99A9-DE6A744B9F62}">
   <dimension ref="A4:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2527,7 +2731,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="19" t="s">
+      <c r="C18" t="s">
         <v>168</v>
       </c>
       <c r="F18" s="5"/>
@@ -2571,80 +2775,48 @@
       <c r="B25" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2677,99 +2849,376 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="20" t="s">
+      <c r="B37" t="s">
         <v>190</v>
+      </c>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83291F7C-58DB-8843-8750-FBFB06C308D7}">
+  <dimension ref="A4:P52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="D15" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="5"/>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="5"/>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="5"/>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="5"/>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="5"/>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="5"/>
+      <c r="A41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
@@ -2822,22 +3271,148 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="8"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="5"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC829C12-F752-BE47-8241-5BBE385444FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD53F50-8AA2-6948-890A-967FFE6552A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="11" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="12" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Exe 03 - birthday" sheetId="10" r:id="rId10"/>
     <sheet name="Exe 04 - tag" sheetId="11" r:id="rId11"/>
     <sheet name="List 01" sheetId="12" r:id="rId12"/>
+    <sheet name="List 02" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="236">
   <si>
     <t>構成</t>
   </si>
@@ -727,6 +728,93 @@
   </si>
   <si>
     <t>myList[6] = ["d", "e"], myList[6][1] = e</t>
+  </si>
+  <si>
+    <t># Trích xuất</t>
+  </si>
+  <si>
+    <t>print(myList[2:])</t>
+  </si>
+  <si>
+    <t>print(myList[0:2])</t>
+  </si>
+  <si>
+    <t># Cập nhật phần tử</t>
+  </si>
+  <si>
+    <t>myList[0] = "Tada"</t>
+  </si>
+  <si>
+    <t>print(myList)</t>
+  </si>
+  <si>
+    <t># Xóa phần tử</t>
+  </si>
+  <si>
+    <t>del myList[0]</t>
+  </si>
+  <si>
+    <t># append</t>
+  </si>
+  <si>
+    <t>myList.append("Python")</t>
+  </si>
+  <si>
+    <t>myList.append(["x", "y"])</t>
+  </si>
+  <si>
+    <t>myList.extend(["x", "y"])</t>
+  </si>
+  <si>
+    <t>#pop</t>
+  </si>
+  <si>
+    <t>item = myList.pop(1)</t>
+  </si>
+  <si>
+    <t>print(item)</t>
+  </si>
+  <si>
+    <t>['a', 'c']</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>['a', 'b', 'c', 'x', 'y']</t>
+  </si>
+  <si>
+    <t>['a', 'b', 'c', ['x', 'y']]</t>
+  </si>
+  <si>
+    <t>['a', 'b', 'c', 'Python']</t>
+  </si>
+  <si>
+    <t>['b', 'c']</t>
+  </si>
+  <si>
+    <t>['Tada', 'b', 'c']</t>
+  </si>
+  <si>
+    <t>['c'] → Lấy từ phần tử ở vị trí index = 2(c)</t>
+  </si>
+  <si>
+    <t>['a', 'b'] → Lấy phần tử ở vị trí có index là 0 và 1</t>
+  </si>
+  <si>
+    <t>Gán lại giá trị của phần tử ở vị trí đầu tiên</t>
+  </si>
+  <si>
+    <t>Xoá phần tử ở vị trí đầu tiên</t>
+  </si>
+  <si>
+    <t>Thêm phần tử vào vị trí cuối List</t>
+  </si>
+  <si>
+    <t>Lấy từng phần tử trong ["x", "y"] gắn vào cuối List</t>
+  </si>
+  <si>
+    <t>Lấy ra phần tử ở vị trí index = 1 ra để gán vào item → myList chỉ còn lại ['a', 'c']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -895,7 +983,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,6 +1381,161 @@
         <a:xfrm flipH="1">
           <a:off x="1955800" y="6896100"/>
           <a:ext cx="1193800" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>53877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1ED25E4-8BD7-B15E-799D-404A34A131D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="14922500"/>
+          <a:ext cx="13309600" cy="3825777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E338EC-0FD2-FBDF-C0A7-BAC0FC70921A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2451100" y="11150600"/>
+          <a:ext cx="2527300" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20F19C1-E93D-24F6-5484-E5D87FE7E22D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1511300" y="13589000"/>
+          <a:ext cx="88900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2910,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83291F7C-58DB-8843-8750-FBFB06C308D7}">
   <dimension ref="A4:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3035,7 +3277,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" t="s">
         <v>182</v>
       </c>
       <c r="F20" s="5"/>
@@ -3064,38 +3306,28 @@
       <c r="B26" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
       <c r="E30" s="5"/>
       <c r="F30" t="s">
         <v>13</v>
@@ -3108,8 +3340,6 @@
       <c r="B31" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
       <c r="E31" s="5"/>
       <c r="F31" t="s">
         <v>13</v>
@@ -3120,24 +3350,18 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
       <c r="E34" s="5"/>
       <c r="F34" t="s">
         <v>13</v>
@@ -3150,8 +3374,6 @@
       <c r="B35" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
       <c r="E35" s="5"/>
       <c r="F35" t="s">
         <v>13</v>
@@ -3164,8 +3386,6 @@
       <c r="B36" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
       <c r="E36" s="5"/>
       <c r="F36" t="s">
         <v>13</v>
@@ -3178,8 +3398,6 @@
       <c r="B37" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
       <c r="E37" s="5"/>
       <c r="F37" t="s">
         <v>13</v>
@@ -3216,184 +3434,45 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
       <c r="P47" s="5"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
       <c r="P48" s="5"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
       <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
       <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
       <c r="P51" s="5"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -3413,6 +3492,1069 @@
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B88326-E0CC-2B43-9603-A438B4B4D264}">
+  <dimension ref="A3:R93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="5"/>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="5"/>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="16"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="5"/>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="5"/>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="16"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="5"/>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="5"/>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="16"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="5"/>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="5"/>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="16"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="5"/>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="16"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="5"/>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="5"/>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="5"/>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="5"/>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="5"/>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="5"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="5"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="5"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="5"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="5"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="5"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="5"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="5"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="5"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="5"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="5"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="5"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="5"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="5"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="5"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="5"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" s="4"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="5"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="5"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="5"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD53F50-8AA2-6948-890A-967FFE6552A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F23B7-E202-6940-AB36-95C132400354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="12" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="13" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Exe 04 - tag" sheetId="11" r:id="rId11"/>
     <sheet name="List 01" sheetId="12" r:id="rId12"/>
     <sheet name="List 02" sheetId="13" r:id="rId13"/>
+    <sheet name="List 03" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="260">
   <si>
     <t>構成</t>
   </si>
@@ -815,6 +816,78 @@
   </si>
   <si>
     <t>Lấy ra phần tử ở vị trí index = 1 ra để gán vào item → myList chỉ còn lại ['a', 'c']</t>
+  </si>
+  <si>
+    <t>04_list_02.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/04_list_02.py</t>
+  </si>
+  <si>
+    <t>#reverse</t>
+  </si>
+  <si>
+    <t>myList.reverse()</t>
+  </si>
+  <si>
+    <t>#sort</t>
+  </si>
+  <si>
+    <t>myList = [1,4,2,9,12,7]</t>
+  </si>
+  <si>
+    <t>myList.sort()               #asc</t>
+  </si>
+  <si>
+    <t>myList.sort(reverse=True)   #desc</t>
+  </si>
+  <si>
+    <t>#count</t>
+  </si>
+  <si>
+    <t>myList = ["a", "a", "b", "c"]</t>
+  </si>
+  <si>
+    <t>print(len(myList))</t>
+  </si>
+  <si>
+    <t>print(myList.count("a"))</t>
+  </si>
+  <si>
+    <t>#clear</t>
+  </si>
+  <si>
+    <t>myList.clear()</t>
+  </si>
+  <si>
+    <t>python3 04_list_02.py</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[12, 9, 7, 4, 2, 1]</t>
+  </si>
+  <si>
+    <t>[1, 2, 4, 7, 9, 12]</t>
+  </si>
+  <si>
+    <t>['c', 'b', 'a']</t>
+  </si>
+  <si>
+    <t>Đảo ngược thứ tự của List</t>
+  </si>
+  <si>
+    <t>Sắp xếp List theo thứ tự tăng dần</t>
+  </si>
+  <si>
+    <t>Sắp xếp List theo thứ tự giảm dần</t>
+  </si>
+  <si>
+    <t>2 → Đếm số lần xuất hiện của phần tử 'a' trong List myList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xoá bỏ hết tất cả các phần tử trong List </t>
   </si>
 </sst>
 </file>
@@ -955,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -983,6 +1056,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,6 +1633,55 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91552</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA69D94-E351-F7EC-7CB5-AFC9C0223BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939799" y="10655300"/>
+          <a:ext cx="14010753" cy="2578100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3503,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B88326-E0CC-2B43-9603-A438B4B4D264}">
   <dimension ref="A3:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3658,138 +3781,90 @@
       <c r="B25" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
       <c r="F40" s="5"/>
       <c r="G40" t="s">
         <v>13</v>
@@ -3802,9 +3877,6 @@
       <c r="B41" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
       <c r="F41" s="5"/>
       <c r="G41" t="s">
         <v>13</v>
@@ -3815,36 +3887,24 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="16"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
       <c r="F45" s="5"/>
       <c r="G45" t="s">
         <v>13</v>
@@ -3857,9 +3917,6 @@
       <c r="B46" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
       <c r="F46" s="5"/>
       <c r="G46" t="s">
         <v>13</v>
@@ -3870,36 +3927,24 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="16"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
       <c r="F50" s="5"/>
       <c r="G50" t="s">
         <v>13</v>
@@ -3912,9 +3957,6 @@
       <c r="B51" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
       <c r="F51" s="5"/>
       <c r="G51" t="s">
         <v>13</v>
@@ -3925,36 +3967,24 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="16"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
       <c r="F55" s="5"/>
       <c r="G55" t="s">
         <v>13</v>
@@ -3967,9 +3997,6 @@
       <c r="B56" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
       <c r="F56" s="5"/>
       <c r="G56" t="s">
         <v>13</v>
@@ -3980,27 +4007,18 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="16"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
       <c r="F58" s="5"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
       <c r="F59" s="5"/>
       <c r="G59" t="s">
         <v>13</v>
@@ -4013,34 +4031,22 @@
       <c r="B60" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="16"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
       <c r="F61" s="5"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
       <c r="F63" s="5"/>
       <c r="G63" t="s">
         <v>13</v>
@@ -4053,9 +4059,6 @@
       <c r="B64" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
       <c r="F64" s="5"/>
       <c r="G64" t="s">
         <v>13</v>
@@ -4068,27 +4071,18 @@
       <c r="B65" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B66" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B67" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
       <c r="F67" s="5"/>
       <c r="G67" t="s">
         <v>13</v>
@@ -4101,9 +4095,6 @@
       <c r="B68" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
       <c r="F68" s="5"/>
       <c r="G68" t="s">
         <v>13</v>
@@ -4116,9 +4107,6 @@
       <c r="B69" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
       <c r="F69" s="5"/>
       <c r="G69" t="s">
         <v>13</v>
@@ -4158,382 +4146,78 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
       <c r="R74" s="5"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
       <c r="R75" s="5"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
       <c r="R76" s="5"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
       <c r="R77" s="5"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
       <c r="R78" s="5"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
       <c r="R79" s="5"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
       <c r="R80" s="5"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
       <c r="R81" s="5"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19"/>
-      <c r="P82" s="19"/>
-      <c r="Q82" s="19"/>
       <c r="R82" s="5"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
       <c r="R83" s="5"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
       <c r="R84" s="5"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
       <c r="R85" s="5"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
       <c r="R86" s="5"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
       <c r="R87" s="5"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
       <c r="R88" s="5"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
       <c r="R89" s="5"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
       <c r="R90" s="5"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
       <c r="R91" s="5"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
       <c r="R92" s="5"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
@@ -4562,6 +4246,762 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF2E8D6-BD95-8B4A-98F3-1AE346C91BC2}">
+  <dimension ref="A3:S66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="D15" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="5"/>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="5"/>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="5"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="5"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="5"/>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="5"/>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="5"/>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="5"/>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="5"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="5"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="5"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="5"/>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="5"/>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="5"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="5"/>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="5"/>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="5"/>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="3"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0CC97E-5A37-2E41-A870-EAFA42883709}">
   <dimension ref="A4:O42"/>

--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F23B7-E202-6940-AB36-95C132400354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB313A6-7CA2-E24A-9AA8-3D0EF14166E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="13" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="14" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="List 01" sheetId="12" r:id="rId12"/>
     <sheet name="List 02" sheetId="13" r:id="rId13"/>
     <sheet name="List 03" sheetId="14" r:id="rId14"/>
+    <sheet name="List 04" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="267">
   <si>
     <t>構成</t>
   </si>
@@ -888,6 +889,27 @@
   </si>
   <si>
     <t xml:space="preserve">Xoá bỏ hết tất cả các phần tử trong List </t>
+  </si>
+  <si>
+    <t>04_list_03.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/04_list_03.py</t>
+  </si>
+  <si>
+    <t>print(min(myList))</t>
+  </si>
+  <si>
+    <t>print(max(myList))</t>
+  </si>
+  <si>
+    <t>print(sum(myList))</t>
+  </si>
+  <si>
+    <t>myList = [2, 3, 4]</t>
+  </si>
+  <si>
+    <t>python3 04_list_03.py</t>
   </si>
 </sst>
 </file>
@@ -1687,6 +1709,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403952</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BE087D-FB9E-7B6E-2881-125CEB9AACCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939799" y="7226300"/>
+          <a:ext cx="12672153" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4250,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF2E8D6-BD95-8B4A-98F3-1AE346C91BC2}">
   <dimension ref="A3:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4335,7 +4406,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="D14" s="19" t="s">
+      <c r="D14" t="s">
         <v>191</v>
       </c>
       <c r="F14" s="5"/>
@@ -4409,24 +4480,18 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
       <c r="E28" s="5"/>
       <c r="F28" t="s">
         <v>13</v>
@@ -4439,8 +4504,6 @@
       <c r="B29" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
       <c r="E29" s="5"/>
       <c r="F29" t="s">
         <v>13</v>
@@ -4451,8 +4514,6 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
       <c r="E30" s="5"/>
       <c r="G30" s="13"/>
     </row>
@@ -4460,8 +4521,6 @@
       <c r="B31" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
       <c r="E31" s="5"/>
       <c r="G31" s="13"/>
     </row>
@@ -4469,8 +4528,6 @@
       <c r="B32" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
       <c r="E32" s="5"/>
       <c r="G32" s="13"/>
     </row>
@@ -4478,8 +4535,6 @@
       <c r="B33" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
       <c r="E33" s="5"/>
       <c r="F33" t="s">
         <v>13</v>
@@ -4492,8 +4547,6 @@
       <c r="B34" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
       <c r="E34" s="5"/>
       <c r="F34" t="s">
         <v>13</v>
@@ -4506,8 +4559,6 @@
       <c r="B35" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
       <c r="E35" s="5"/>
       <c r="F35" t="s">
         <v>13</v>
@@ -4520,8 +4571,6 @@
       <c r="B36" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
       <c r="E36" s="5"/>
       <c r="F36" t="s">
         <v>13</v>
@@ -4532,8 +4581,6 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
       <c r="E37" s="5"/>
       <c r="G37" s="13"/>
     </row>
@@ -4541,8 +4588,6 @@
       <c r="B38" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
       <c r="E38" s="5"/>
       <c r="G38" s="13"/>
     </row>
@@ -4550,8 +4595,6 @@
       <c r="B39" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
       <c r="E39" s="5"/>
       <c r="G39" s="13"/>
     </row>
@@ -4559,8 +4602,6 @@
       <c r="B40" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
       <c r="E40" s="5"/>
       <c r="F40" t="s">
         <v>13</v>
@@ -4573,8 +4614,6 @@
       <c r="B41" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
       <c r="E41" s="5"/>
       <c r="F41" t="s">
         <v>13</v>
@@ -4585,8 +4624,6 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
       <c r="E42" s="5"/>
       <c r="G42" s="13"/>
     </row>
@@ -4594,8 +4631,6 @@
       <c r="B43" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
       <c r="E43" s="5"/>
       <c r="G43" s="13"/>
     </row>
@@ -4603,8 +4638,6 @@
       <c r="B44" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
       <c r="E44" s="5"/>
       <c r="G44" s="13"/>
     </row>
@@ -4612,8 +4645,6 @@
       <c r="B45" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
       <c r="E45" s="5"/>
       <c r="F45" t="s">
         <v>13</v>
@@ -4626,8 +4657,6 @@
       <c r="B46" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
       <c r="E46" s="5"/>
       <c r="F46" t="s">
         <v>13</v>
@@ -4640,8 +4669,6 @@
       <c r="B47" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
       <c r="E47" s="5"/>
       <c r="F47" t="s">
         <v>13</v>
@@ -4681,298 +4708,61 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="20" t="s">
+      <c r="B52" t="s">
         <v>250</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
       <c r="S52" s="5"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
       <c r="S53" s="5"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
       <c r="S54" s="5"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
       <c r="S55" s="5"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
       <c r="S56" s="5"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
       <c r="S58" s="5"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
       <c r="S59" s="5"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
       <c r="S60" s="5"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
       <c r="S61" s="5"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
       <c r="S62" s="5"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
       <c r="S63" s="5"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
       <c r="S64" s="5"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
       <c r="S65" s="5"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
@@ -5002,6 +4792,442 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45AA01B-355C-D240-A407-8CAB748FE57B}">
+  <dimension ref="A3:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="D15" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="D16" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="5"/>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="5"/>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="5"/>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0CC97E-5A37-2E41-A870-EAFA42883709}">
   <dimension ref="A4:O42"/>

--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB313A6-7CA2-E24A-9AA8-3D0EF14166E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B83AE-59C4-CA4D-9A47-A627CFD1FBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" activeTab="14" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" firstSheet="1" activeTab="15" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="List 02" sheetId="13" r:id="rId13"/>
     <sheet name="List 03" sheetId="14" r:id="rId14"/>
     <sheet name="List 04" sheetId="15" r:id="rId15"/>
+    <sheet name="Exe 05 - extension" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="281">
   <si>
     <t>構成</t>
   </si>
@@ -910,6 +911,48 @@
   </si>
   <si>
     <t>python3 04_list_03.py</t>
+  </si>
+  <si>
+    <t>exe_05_extension.py</t>
+  </si>
+  <si>
+    <t>quang/python/exe/exe_05_extension.py</t>
+  </si>
+  <si>
+    <t># Input     : Nhập vào tên tập tin</t>
+  </si>
+  <si>
+    <t># Output    : In ra phần mở rộng của tập tin</t>
+  </si>
+  <si>
+    <t>fileName    = input("Nhập vào tên tập tin: ")</t>
+  </si>
+  <si>
+    <t>fileExt     = fileName.split(".")</t>
+  </si>
+  <si>
+    <t>tmp         = len(fileExt)</t>
+  </si>
+  <si>
+    <t>result      = "Không xác định"</t>
+  </si>
+  <si>
+    <t>if(tmp &gt; 1):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      result = fileExt[tmp - 1]</t>
+  </si>
+  <si>
+    <t>print("Phần mở rộng của tập tin: " + result)</t>
+  </si>
+  <si>
+    <t>①Không có phần mở rộng</t>
+  </si>
+  <si>
+    <t>python3 exe_05_extension.py</t>
+  </si>
+  <si>
+    <t>②Có phần mở rộng</t>
   </si>
 </sst>
 </file>
@@ -1758,6 +1801,205 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>340366</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4049468A-5A38-D458-B41E-2AA2D7DBEE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939799" y="9232900"/>
+          <a:ext cx="13434067" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9989C76A-ED32-42C1-E750-CD4237FF0FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="8915400"/>
+          <a:ext cx="1866900" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365766</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E076BCF-E11C-81AB-B929-501BF8B23401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="965199" y="11912600"/>
+          <a:ext cx="13434067" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13FA4C9-16FB-9B6B-6517-A033416D7151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="11544300"/>
+          <a:ext cx="2552700" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3697,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B88326-E0CC-2B43-9603-A438B4B4D264}">
   <dimension ref="A3:R93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4321,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF2E8D6-BD95-8B4A-98F3-1AE346C91BC2}">
   <dimension ref="A3:S66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4421,7 +4663,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4796,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45AA01B-355C-D240-A407-8CAB748FE57B}">
   <dimension ref="A3:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4888,7 +5130,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" t="s">
         <v>236</v>
       </c>
       <c r="F15" s="5"/>
@@ -4903,7 +5145,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4961,14 +5203,12 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
-      <c r="C27" s="20"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C28" s="20"/>
       <c r="D28" s="5"/>
       <c r="E28" t="s">
         <v>13</v>
@@ -4981,7 +5221,6 @@
       <c r="B29" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C29" s="20"/>
       <c r="D29" s="5"/>
       <c r="E29" t="s">
         <v>13</v>
@@ -4994,7 +5233,6 @@
       <c r="B30" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C30" s="20"/>
       <c r="D30" s="5"/>
       <c r="E30" t="s">
         <v>13</v>
@@ -5032,175 +5270,41 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="20" t="s">
+      <c r="B35" t="s">
         <v>266</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
       <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
       <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -5221,6 +5325,838 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712A9B9-9966-754B-ACEE-8BDB0475ACB2}">
+  <dimension ref="A3:S68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="D16" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
+++ b/me/1.Lap-trinh-python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/python/me/1.Lap-trinh-python/1.Lap-trinh-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B83AE-59C4-CA4D-9A47-A627CFD1FBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30792B2F-0E3E-854D-B6BD-6BA7885A1574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" firstSheet="1" activeTab="15" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
+    <workbookView xWindow="1560" yWindow="1260" windowWidth="31460" windowHeight="18720" firstSheet="2" activeTab="16" xr2:uid="{FC6AE9BB-4BEF-564A-A974-1CE698055D30}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="List 03" sheetId="14" r:id="rId14"/>
     <sheet name="List 04" sheetId="15" r:id="rId15"/>
     <sheet name="Exe 05 - extension" sheetId="16" r:id="rId16"/>
+    <sheet name="Dictionary" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="303">
   <si>
     <t>構成</t>
   </si>
@@ -953,6 +954,72 @@
   </si>
   <si>
     <t>②Có phần mở rộng</t>
+  </si>
+  <si>
+    <t>05_dictionary.py</t>
+  </si>
+  <si>
+    <t>python/1.Lap-trinh-python/2.lam-viec-voi-cac-kieu-du-lieu/05_dictionary.py</t>
+  </si>
+  <si>
+    <t>myDic = {'name': 'quangvu', 'age': 18}</t>
+  </si>
+  <si>
+    <t>print(myDic)</t>
+  </si>
+  <si>
+    <t>print(myDic['name'])</t>
+  </si>
+  <si>
+    <t>myDic = {'name': 'quangvu', 'age': 18, 'score': [7,8,9]}</t>
+  </si>
+  <si>
+    <t>print(myDic['score'][2])</t>
+  </si>
+  <si>
+    <t>myDic['name'] = "vudinhquang"</t>
+  </si>
+  <si>
+    <t>myDic['address'] =  {}</t>
+  </si>
+  <si>
+    <t>myDic['address']['city']        =  "ho chi minh"</t>
+  </si>
+  <si>
+    <t>myDic['address']['district']    =  "quan 9"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del myDic['address']['district'] </t>
+  </si>
+  <si>
+    <t>python3 05_dictionary.py</t>
+  </si>
+  <si>
+    <t>{'name': 'quangvu', 'age': 18}</t>
+  </si>
+  <si>
+    <t>quangvu</t>
+  </si>
+  <si>
+    <t>{'name': 'quangvu', 'age': 18, 'score': [7, 8, 9]}</t>
+  </si>
+  <si>
+    <t>{'name': 'vudinhquang', 'age': 18, 'score': [7, 8, 9]}</t>
+  </si>
+  <si>
+    <t>{'name': 'vudinhquang', 'age': 18, 'score': [7, 8, 9], 'address': {'city': 'ho chi minh', 'district': 'quan 9'}}</t>
+  </si>
+  <si>
+    <t>{'name': 'vudinhquang', 'age': 18, 'score': [7, 8, 9], 'address': {'city': 'ho chi minh'}}</t>
+  </si>
+  <si>
+    <t>Cập nhật lại name</t>
+  </si>
+  <si>
+    <t>Khởi tạo cho phần tử address là 1 Dictionary rỗng</t>
+  </si>
+  <si>
+    <t>Xoá phần tử</t>
   </si>
 </sst>
 </file>
@@ -2000,6 +2067,214 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239784</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E7E6DD-FC08-9A55-EAF1-A0333BE0D61E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952499" y="10058400"/>
+          <a:ext cx="14146285" cy="2616200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9D69C9-EA6B-CC1D-A3D3-88BD26B38B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2286000" y="6286500"/>
+          <a:ext cx="1739900" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895DE75A-AD83-2B36-9D78-AFC840C786C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="7073900"/>
+          <a:ext cx="3670300" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C936F2B-F088-837D-D116-75BC088C4D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="7696200"/>
+          <a:ext cx="7226300" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5336,8 +5611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712A9B9-9966-754B-ACEE-8BDB0475ACB2}">
   <dimension ref="A3:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5435,7 +5710,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" t="s">
         <v>260</v>
       </c>
       <c r="F16" s="5"/>
@@ -5512,88 +5787,64 @@
       <c r="B28" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -5653,189 +5904,54 @@
       <c r="B45" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
     </row>
@@ -5862,6 +5978,681 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2254FA9-E5BB-E34E-9B53-3E4D24B90604}">
+  <dimension ref="A3:S63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="D14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="D15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="D17" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="5"/>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="5"/>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="5"/>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="5"/>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="5"/>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="5"/>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="5"/>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="5"/>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="5"/>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="5"/>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -5904,32 +6695,28 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="3"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="4" t="s">
-        <v>279</v>
-      </c>
+      <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -5945,12 +6732,12 @@
       <c r="O58" s="20"/>
       <c r="P58" s="20"/>
       <c r="Q58" s="20"/>
-      <c r="R58" s="5"/>
+      <c r="R58" s="20"/>
       <c r="S58" s="5"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -5966,12 +6753,12 @@
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
       <c r="Q59" s="20"/>
-      <c r="R59" s="5"/>
+      <c r="R59" s="20"/>
       <c r="S59" s="5"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
@@ -5987,12 +6774,12 @@
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
       <c r="Q60" s="20"/>
-      <c r="R60" s="5"/>
+      <c r="R60" s="20"/>
       <c r="S60" s="5"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
@@ -6008,12 +6795,12 @@
       <c r="O61" s="20"/>
       <c r="P61" s="20"/>
       <c r="Q61" s="20"/>
-      <c r="R61" s="5"/>
+      <c r="R61" s="20"/>
       <c r="S61" s="5"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
@@ -6029,134 +6816,29 @@
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
       <c r="Q62" s="20"/>
-      <c r="R62" s="5"/>
+      <c r="R62" s="20"/>
       <c r="S62" s="5"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="5"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="8"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
